--- a/data/trans_bre/P12_2_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.022426234419513</v>
+        <v>2.532459586284595</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2539642261692087</v>
+        <v>-0.05798576683756976</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.539763875529593</v>
+        <v>-4.591464854479561</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.319043027093578</v>
+        <v>-1.968015831915435</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1555664890015229</v>
+        <v>0.1205271140163398</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.008757328402431569</v>
+        <v>-0.005750879017620036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3038709485516647</v>
+        <v>-0.2979048700650495</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1257918942377978</v>
+        <v>-0.1082951052258799</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.91226540994428</v>
+        <v>14.4369105822809</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.85550114071152</v>
+        <v>12.0018183279446</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.584417689354422</v>
+        <v>5.6929561445235</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.894292169531563</v>
+        <v>6.844092361631475</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9838189166313442</v>
+        <v>0.9689315476015956</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9786995069953104</v>
+        <v>0.9608947610291173</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5135862993263928</v>
+        <v>0.52786220637836</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5013726470927071</v>
+        <v>0.4948526632421184</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>9.04167837206044</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.832704766629744</v>
+        <v>7.832704766629747</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5180736711939398</v>
@@ -749,7 +749,7 @@
         <v>1.108362872197192</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5795621632992514</v>
+        <v>0.5795621632992517</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.246757334487061</v>
+        <v>2.450458708146079</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.024153100738245</v>
+        <v>-0.2849626438474128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.161822426014887</v>
+        <v>3.893089950855702</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.43624408648401</v>
+        <v>3.508617148311318</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1148849599466601</v>
+        <v>0.1296209347466591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04772355750076028</v>
+        <v>-0.02568723035202235</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4065598623681148</v>
+        <v>0.3385062097899669</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2010368163842549</v>
+        <v>0.211559019455567</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.42743677792828</v>
+        <v>15.00418155666255</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.49696964022026</v>
+        <v>11.86658599830742</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.1209665950143</v>
+        <v>14.33643048841237</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.19968385409284</v>
+        <v>12.68632622563064</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.045677581762364</v>
+        <v>1.096457949393779</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8343237021810249</v>
+        <v>0.8240769750047706</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.292851041071822</v>
+        <v>2.300545546362723</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.090364378303233</v>
+        <v>1.095709916815875</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.2175302704256128</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4897632302997351</v>
+        <v>0.4897632302997353</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.38898349723134</v>
+        <v>1.939038678173026</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.299207782909182</v>
+        <v>-2.043808564699681</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.194799853992324</v>
+        <v>-3.489007238483993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.205187714468162</v>
+        <v>2.247580573502809</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.05906015923510771</v>
+        <v>0.07976246060670597</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1039080461745455</v>
+        <v>-0.09649511384087439</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1652508745888013</v>
+        <v>-0.1866442238337336</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1045209744780057</v>
+        <v>0.116332094054977</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.74935165051445</v>
+        <v>17.3536609516704</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.36074607209166</v>
+        <v>10.70242710516446</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.47641793222769</v>
+        <v>12.01868170285901</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.19748617010294</v>
+        <v>15.34545768997019</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9763485993708728</v>
+        <v>0.9586108538188371</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6002021818319654</v>
+        <v>0.6135563545319643</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7390400488850221</v>
+        <v>0.7684732858060727</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.999923867632284</v>
+        <v>1.042900937032116</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.364927420038642</v>
+        <v>-3.696432769760385</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.010593538636163</v>
+        <v>-1.683119511610525</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.786545486347094</v>
+        <v>-2.946678022846859</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5613287602114465</v>
+        <v>0.4164266907739506</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1331547599539674</v>
+        <v>-0.1476185438421486</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.09285441832815401</v>
+        <v>-0.07929679970128535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.145965794748177</v>
+        <v>-0.1581764576684419</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02588502604955959</v>
+        <v>0.01907028895348772</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.592343539773714</v>
+        <v>4.400517090826265</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.083284994877205</v>
+        <v>6.098838417015403</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.014666757288984</v>
+        <v>4.061667036819459</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.1848474503503</v>
+        <v>7.313638533032095</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2102618004852889</v>
+        <v>0.2007917300334078</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.34306522563477</v>
+        <v>0.357068205545937</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2461064388558937</v>
+        <v>0.2545636554246597</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4198342195827769</v>
+        <v>0.420480985631041</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.4027250069071829</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3748913564568834</v>
+        <v>0.3748913564568835</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.354559222452982</v>
+        <v>5.388352857116926</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.201864162381312</v>
+        <v>7.715454092883821</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.41648842320629</v>
+        <v>3.743466782782252</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.308687141228496</v>
+        <v>3.410774819212734</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2124715497592326</v>
+        <v>0.2026545110369783</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3942414440951074</v>
+        <v>0.3815615678021372</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1508006427924057</v>
+        <v>0.1556934115988961</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1341278223778245</v>
+        <v>0.1421927032895998</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.80234543587709</v>
+        <v>16.87288586395913</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.87130917677401</v>
+        <v>17.41258151091873</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.72593346648597</v>
+        <v>13.14517646211309</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.63617360159692</v>
+        <v>12.10318403522001</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.031662002012475</v>
+        <v>0.9389410596188953</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.200241192828422</v>
+        <v>1.177990991184094</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7066263998132059</v>
+        <v>0.7577729787883382</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6684249210677279</v>
+        <v>0.6940500775735637</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>22.92232088430394</v>
+        <v>23.22383476342288</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>15.51468517231909</v>
+        <v>15.49499844124855</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13.04459126650014</v>
+        <v>14.02122930099817</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11.51001117165567</v>
+        <v>11.59292885482083</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>2.359633997583519</v>
+        <v>2.4539384247778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.43061970983741</v>
+        <v>1.384720721300712</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.21140511446172</v>
+        <v>1.246129651461624</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.9934918877095384</v>
+        <v>0.9753245408155562</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>30.82927734014004</v>
+        <v>30.83321873891434</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>24.18571855856502</v>
+        <v>24.1398459411781</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21.72527079127637</v>
+        <v>21.98506978213978</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20.89581280792546</v>
+        <v>20.83259778188655</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.954911170911616</v>
+        <v>6.703674540284648</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.3056636844496</v>
+        <v>5.240873592112583</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.517703034436507</v>
+        <v>4.392180780604539</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>7.492643005235748</v>
+        <v>6.860902910679883</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>6.538781963338431</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.562760829011313</v>
+        <v>6.562760829011316</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5204516990171759</v>
@@ -1249,7 +1249,7 @@
         <v>0.4185106857777072</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.3905778524087334</v>
+        <v>0.3905778524087337</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.038702976347951</v>
+        <v>8.098036091771675</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.98660789877915</v>
+        <v>6.113391821112403</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.781020830510822</v>
+        <v>4.733559356642581</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.862051166569916</v>
+        <v>4.818527264674221</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3895615909589961</v>
+        <v>0.3899818642389832</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3269213396279885</v>
+        <v>0.3344414874082461</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2847968943921179</v>
+        <v>0.2862757874568346</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2749681576506006</v>
+        <v>0.2692217993829278</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.17783970813269</v>
+        <v>12.13219956998857</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.28178406878746</v>
+        <v>10.16151624580165</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.617983042727291</v>
+        <v>8.537048517089962</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.29836546019072</v>
+        <v>8.271134779049193</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6511956970952826</v>
+        <v>0.6451068837218571</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6364005921898997</v>
+        <v>0.6319951195124456</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5784476699950341</v>
+        <v>0.5760501281741777</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5281742101660508</v>
+        <v>0.5227276371827935</v>
       </c>
     </row>
     <row r="25">
